--- a/pred_ohlcv/54_21/2020-01-14 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>887646.8005222803</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1864499.63192228</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1881931.12982228</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1927154.83382228</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1822726.47602228</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1815819.45012228</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1823114.39012228</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2519787.22412228</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2519110.19502228</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2516526.56502228</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2516599.822322281</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2098424.099185992</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2096867.871992622</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2126968.050692622</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2615982.193992622</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3605264.083714432</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3605264.083714432</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3177818.150314432</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3162930.625014432</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3475868.733114432</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3409080.855914432</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3649677.615614431</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3632954.156414432</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3626624.750714432</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3626684.062714431</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3626364.062714431</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3608864.062714431</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2942559.503414432</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1200736.286914432</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1265330.778514432</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1162654.302914432</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1166194.652914432</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1163176.448014432</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1164356.468014432</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1315642.214314432</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1234537.655614432</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-60742339.63390391</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-61073299.51390391</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-61178367.70780391</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-61173271.3614039</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-61198763.2601039</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-61309534.0905039</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-61116467.7855039</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-60870035.4312039</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-61458369.43453693</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-61096159.31553693</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-61416362.65553741</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-61416262.65553741</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-61423209.66113741</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-61416545.17123741</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-61414480.25523741</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-60919523.99861182</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-60750428.83018846</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-60736528.83018846</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-60749290.75088846</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-60749225.94278846</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-60774505.25278846</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-60816277.93468846</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-60940238.60178846</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-60940038.60178846</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-60939192.72018846</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-60954189.41468846</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-60954337.39798846</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-62113526.98408547</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-62358776.57118547</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-62271033.38878547</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-62531033.38878547</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-62475706.93278547</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-62467005.63278547</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-62467065.51308547</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-62392162.81188547</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-62019597.06018547</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-62152046.92058548</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-62135949.56838547</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-62162393.88868547</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-62166261.98908547</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-62268802.01668547</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-62214102.56498547</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-63616972.27728547</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-63616850.28933367</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-64969572.68583367</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-64969350.69788187</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-66301860.43257633</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-66969841.93367633</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-66968234.06367633</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-67032485.26147634</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-66890390.04147634</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>887646.8005222803</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>743551.9209222803</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>706341.2005222803</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1927154.83382228</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1822726.47602228</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1815819.45012228</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1823114.39012228</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2519787.22412228</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2519110.19502228</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2516526.56502228</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2516599.822322281</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2098424.099185992</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2096867.871992622</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2126968.050692622</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3605264.083714432</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3177818.150314432</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3162930.625014432</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3475868.733114432</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3409080.855914432</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3649677.615614431</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3632954.156414432</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3626624.750714432</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>3626684.062714431</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3626364.062714431</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>3608864.062714431</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1200736.286914432</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1265330.778514432</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1162654.302914432</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1166194.652914432</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1163176.448014432</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1164356.468014432</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1315642.214314432</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1234537.655614432</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-61173271.3614039</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-61198763.2601039</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-61309534.0905039</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-60864246.21202507</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-61488303.02172507</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-61096159.31553693</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-61416362.65553741</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-61416262.65553741</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-61423209.66113741</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-61416545.17123741</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-61414480.25523741</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-60919523.99861182</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-60750428.83018846</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-60736528.83018846</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-60749290.75088846</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-60749225.94278846</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-60774505.25278846</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-60816277.93468846</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-60940238.60178846</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-60940038.60178846</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-60939192.72018846</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-60954189.41468846</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-60954337.39798846</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-62113526.98408547</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-62358776.57118547</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-62271033.38878547</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-62531033.38878547</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-62475706.93278547</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-62467005.63278547</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-62467065.51308547</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-62392162.81188547</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-62019597.06018547</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-62152046.92058548</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-62135949.56838547</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-62162393.88868547</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-62166261.98908547</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-62268802.01668547</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-62214102.56498547</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-63616972.27728547</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-63616850.28933367</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-64969572.68583367</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-64969350.69788187</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-66301860.43257633</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-66969841.93367633</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-66968234.06367633</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-67032485.26147634</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-66890390.04147634</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
